--- a/uploads/attachments/2020/FebMobile Pre Disconnected.xlsx
+++ b/uploads/attachments/2020/FebMobile Pre Disconnected.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Hackathon 2020\Data\subs\Mobile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
@@ -60,12 +55,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,10 +292,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,7 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,19 +501,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -531,7 +524,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
         <v>9</v>
@@ -544,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -555,7 +548,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -564,7 +557,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -573,7 +566,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -582,7 +575,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -593,7 +586,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -602,7 +595,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -611,7 +604,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -624,7 +617,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -635,7 +628,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -644,7 +637,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -653,7 +646,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -662,7 +655,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -673,7 +666,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -682,7 +675,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -691,7 +684,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -704,11 +697,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="E32" s="8"/>
     </row>
   </sheetData>

--- a/uploads/attachments/2020/FebMobile Pre Disconnected.xlsx
+++ b/uploads/attachments/2020/FebMobile Pre Disconnected.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\subs\Mobile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="B-mobile" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>4G LTE Postpaid</t>
   </si>
@@ -50,17 +55,47 @@
   </si>
   <si>
     <t>B-Mobile Subscriber Count</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,6 +362,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,19 +538,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="D2" sqref="D2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -524,7 +561,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
         <v>9</v>
@@ -536,8 +573,38 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -547,8 +614,18 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -556,8 +633,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -565,8 +652,18 @@
       <c r="C5" s="1"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -574,8 +671,18 @@
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -585,8 +692,18 @@
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -594,8 +711,18 @@
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -603,8 +730,18 @@
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -616,8 +753,38 @@
       <c r="E10" s="6">
         <v>550</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="6">
+        <v>500</v>
+      </c>
+      <c r="G10" s="6">
+        <v>550</v>
+      </c>
+      <c r="H10" s="6">
+        <v>500</v>
+      </c>
+      <c r="I10" s="6">
+        <v>550</v>
+      </c>
+      <c r="J10" s="6">
+        <v>500</v>
+      </c>
+      <c r="K10" s="6">
+        <v>550</v>
+      </c>
+      <c r="L10" s="6">
+        <v>500</v>
+      </c>
+      <c r="M10" s="6">
+        <v>550</v>
+      </c>
+      <c r="N10" s="6">
+        <v>500</v>
+      </c>
+      <c r="O10" s="6">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -627,8 +794,18 @@
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -636,8 +813,18 @@
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -645,8 +832,18 @@
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -654,8 +851,18 @@
       <c r="C14" s="1"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -665,8 +872,18 @@
       <c r="C15" s="1"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -674,8 +891,18 @@
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -683,8 +910,18 @@
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -696,12 +933,42 @@
       <c r="E18" s="6">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+      <c r="G18" s="6">
+        <v>200</v>
+      </c>
+      <c r="H18" s="6">
+        <v>100</v>
+      </c>
+      <c r="I18" s="6">
+        <v>200</v>
+      </c>
+      <c r="J18" s="6">
+        <v>100</v>
+      </c>
+      <c r="K18" s="6">
+        <v>200</v>
+      </c>
+      <c r="L18" s="6">
+        <v>100</v>
+      </c>
+      <c r="M18" s="6">
+        <v>200</v>
+      </c>
+      <c r="N18" s="6">
+        <v>100</v>
+      </c>
+      <c r="O18" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
     </row>
   </sheetData>

--- a/uploads/attachments/2020/FebMobile Pre Disconnected.xlsx
+++ b/uploads/attachments/2020/FebMobile Pre Disconnected.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\subs\Mobile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="B-mobile" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>4G LTE Postpaid</t>
   </si>
@@ -55,47 +50,17 @@
   </si>
   <si>
     <t>B-Mobile Subscriber Count</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,10 +292,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +326,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,19 +501,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:O2"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -561,7 +524,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="12" t="s">
         <v>9</v>
@@ -573,38 +536,8 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -614,18 +547,8 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -633,18 +556,8 @@
       <c r="C4" s="1"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -652,18 +565,8 @@
       <c r="C5" s="1"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -671,18 +574,8 @@
       <c r="C6" s="1"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -692,18 +585,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -711,18 +594,8 @@
       <c r="C8" s="1"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -730,18 +603,8 @@
       <c r="C9" s="1"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -753,38 +616,8 @@
       <c r="E10" s="6">
         <v>550</v>
       </c>
-      <c r="F10" s="6">
-        <v>500</v>
-      </c>
-      <c r="G10" s="6">
-        <v>550</v>
-      </c>
-      <c r="H10" s="6">
-        <v>500</v>
-      </c>
-      <c r="I10" s="6">
-        <v>550</v>
-      </c>
-      <c r="J10" s="6">
-        <v>500</v>
-      </c>
-      <c r="K10" s="6">
-        <v>550</v>
-      </c>
-      <c r="L10" s="6">
-        <v>500</v>
-      </c>
-      <c r="M10" s="6">
-        <v>550</v>
-      </c>
-      <c r="N10" s="6">
-        <v>500</v>
-      </c>
-      <c r="O10" s="6">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -794,18 +627,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -813,18 +636,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
@@ -832,18 +645,8 @@
       <c r="C13" s="1"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -851,18 +654,8 @@
       <c r="C14" s="1"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -872,18 +665,8 @@
       <c r="C15" s="1"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>1</v>
@@ -891,18 +674,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
@@ -910,18 +683,8 @@
       <c r="C17" s="1"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -933,42 +696,12 @@
       <c r="E18" s="6">
         <v>200</v>
       </c>
-      <c r="F18" s="6">
-        <v>100</v>
-      </c>
-      <c r="G18" s="6">
-        <v>200</v>
-      </c>
-      <c r="H18" s="6">
-        <v>100</v>
-      </c>
-      <c r="I18" s="6">
-        <v>200</v>
-      </c>
-      <c r="J18" s="6">
-        <v>100</v>
-      </c>
-      <c r="K18" s="6">
-        <v>200</v>
-      </c>
-      <c r="L18" s="6">
-        <v>100</v>
-      </c>
-      <c r="M18" s="6">
-        <v>200</v>
-      </c>
-      <c r="N18" s="6">
-        <v>100</v>
-      </c>
-      <c r="O18" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5">
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="E32" s="8"/>
     </row>
   </sheetData>
